--- a/data/trans_camb/P69_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Clase-trans_camb.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,0</t>
+          <t>-6,33; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-8,08; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,0</t>
+          <t>-3,49; 0,0</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-10,12; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 0,0</t>
+          <t>-6,33; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-8,08; 0,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,0</t>
+          <t>-3,49; 0,0</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 0,0</t>
+          <t>-16,13; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-9,93; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,0</t>
+          <t>-8,46; 0,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
     </row>
@@ -1012,12 +1012,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 0,0</t>
+          <t>-16,13; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 0,0</t>
+          <t>-9,93; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,0</t>
+          <t>-8,46; 0,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,0</t>
+          <t>-6,29; 0,0</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,74</t>
+          <t>-2,23; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,38</t>
+          <t>0,0; 6,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,19</t>
+          <t>0,0; 6,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,0</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,86</t>
+          <t>-1,31; 4,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,82</t>
+          <t>0,0; 5,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,73</t>
+          <t>-0,63; 4,35</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,89</t>
+          <t>-2,26; 3,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,6</t>
+          <t>0,0; 6,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,0</t>
+          <t>-12,41; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,12</t>
+          <t>-1,29; 4,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,18</t>
+          <t>0,0; 5,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,96</t>
+          <t>-0,63; 4,57</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,04</t>
+          <t>-2,15; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,52</t>
+          <t>-3,62; 0,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -0,69</t>
+          <t>-5,93; -0,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,05</t>
+          <t>-1,27; 0,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,12</t>
+          <t>-3,27; 0,14</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,79</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,05</t>
+          <t>-2,17; 1,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,53</t>
+          <t>-3,64; 0,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,22 +1464,22 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,74; -0,69</t>
+          <t>-5,93; -0,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,99</t>
+          <t>-1,27; 0,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,12</t>
+          <t>-3,29; 0,14</t>
         </is>
       </c>
     </row>
@@ -1549,17 +1549,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,23</t>
+          <t>0,0; 7,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,09</t>
+          <t>-2,89; 4,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,19</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 0,0</t>
+          <t>-10,72; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,73</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,5</t>
+          <t>-4,84; 1,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 3,91</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,97</t>
+          <t>0,0; 8,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,33</t>
+          <t>-2,89; 5,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,91</t>
+          <t>0,0; 7,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 0,0</t>
+          <t>-10,72; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,53</t>
+          <t>-4,89; 1,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 4,07</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,35; 1,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,79; 0,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,15</t>
+          <t>-1,43; 1,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,27 +2001,27 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; -0,35</t>
+          <t>-2,29; -0,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,05; 1,11</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,52</t>
+          <t>-1,18; 0,46</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,35; 1,62</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,79; 0,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,17</t>
+          <t>-1,44; 1,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,27 +2107,27 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,26; -0,35</t>
+          <t>-2,29; -0,38</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,05; 1,12</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,53</t>
+          <t>-1,19; 0,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
